--- a/papers.xlsx
+++ b/papers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\yanll\Workspace\Personal\Projects\what-does-deep-learning-doing-in-biomed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{892820CE-7309-47DD-A1BD-2735F81780AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1195365-EAE0-4ACD-9740-85D364AB0E43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1E75BEED-BD7A-4FCF-862A-92BB43F7F2FE}"/>
+    <workbookView xWindow="10680" yWindow="1020" windowWidth="28800" windowHeight="15345" xr2:uid="{1E75BEED-BD7A-4FCF-862A-92BB43F7F2FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="273">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1018,6 +1018,114 @@
   </si>
   <si>
     <t>医保数据；文献数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1007/s11356-022-21723-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Machine learning-based time series models for effective CO2 emission prediction in India.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A convolutional neural network highlights mutations relevant to antimicrobial resistance in Mycobacterium tuberculosis.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1038/s41467-022-31236-0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Environ Sci Pollut Res Int.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nat Commun.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1186/s12874-022-01665-y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A comparative study on deep learning models for text classification of unstructured medical notes with various levels of class imbalance.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BMC Med Res Methodol.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Multi-branch fusion auxiliary learning for the detection of pneumonia from chest X-ray images.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comput Biol Med.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1016/j.compbiomed.2022.105732</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1007/s00330-022-08969-z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eur Radiol.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Multi-center validation of an artificial intelligence system for detection of COVID-19 on chest radiographs in symptomatic patients.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二氧化碳排放预测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从微生物序列，预测结核分枝杆菌耐药性相关突变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基因组序列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>病原微生物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医学笔记的文本分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于X射线图像检测肺炎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于X光胸片检测COVID-19，多中心验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新冠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肺炎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肺结核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外伤</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1442,11 +1550,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{866CBFFE-03AD-46A4-AA9F-318EF5E0B526}">
-  <dimension ref="A1:N48"/>
+  <dimension ref="A1:N53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A49" sqref="A49"/>
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2135,7 +2243,9 @@
       <c r="J17" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="K17" s="7"/>
+      <c r="K17" s="7" t="s">
+        <v>269</v>
+      </c>
       <c r="L17" s="7"/>
       <c r="M17" s="7" t="s">
         <v>184</v>
@@ -2251,7 +2361,9 @@
       <c r="J20" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="K20" s="7"/>
+      <c r="K20" s="7" t="s">
+        <v>152</v>
+      </c>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
@@ -2325,7 +2437,9 @@
       <c r="J22" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="K22" s="7"/>
+      <c r="K22" s="7" t="s">
+        <v>152</v>
+      </c>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
@@ -2401,7 +2515,9 @@
       <c r="J24" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="K24" s="7"/>
+      <c r="K24" s="7" t="s">
+        <v>269</v>
+      </c>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
@@ -2477,7 +2593,9 @@
       <c r="J26" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="K26" s="7"/>
+      <c r="K26" s="7" t="s">
+        <v>152</v>
+      </c>
       <c r="L26" s="7"/>
       <c r="M26" s="7" t="s">
         <v>204</v>
@@ -2515,7 +2633,9 @@
       <c r="J27" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="K27" s="7"/>
+      <c r="K27" s="7" t="s">
+        <v>152</v>
+      </c>
       <c r="L27" s="7"/>
       <c r="M27" s="7" t="s">
         <v>205</v>
@@ -2591,7 +2711,9 @@
       <c r="J29" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="K29" s="7"/>
+      <c r="K29" s="7" t="s">
+        <v>152</v>
+      </c>
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
       <c r="N29" s="7"/>
@@ -2743,7 +2865,9 @@
       <c r="J33" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="K33" s="7"/>
+      <c r="K33" s="7" t="s">
+        <v>152</v>
+      </c>
       <c r="L33" s="7"/>
       <c r="M33" s="7"/>
       <c r="N33" s="7"/>
@@ -2779,7 +2903,9 @@
       <c r="J34" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="K34" s="7"/>
+      <c r="K34" s="7" t="s">
+        <v>152</v>
+      </c>
       <c r="L34" s="7" t="s">
         <v>221</v>
       </c>
@@ -2817,7 +2943,9 @@
       <c r="J35" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="K35" s="7"/>
+      <c r="K35" s="7" t="s">
+        <v>152</v>
+      </c>
       <c r="L35" s="7"/>
       <c r="M35" s="7"/>
       <c r="N35" s="7"/>
@@ -3047,7 +3175,9 @@
       <c r="J41" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="K41" s="7"/>
+      <c r="K41" s="7" t="s">
+        <v>272</v>
+      </c>
       <c r="L41" s="7" t="s">
         <v>234</v>
       </c>
@@ -3087,7 +3217,9 @@
       <c r="J42" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="K42" s="7"/>
+      <c r="K42" s="7" t="s">
+        <v>269</v>
+      </c>
       <c r="L42" s="7" t="s">
         <v>173</v>
       </c>
@@ -3127,7 +3259,9 @@
       <c r="J43" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="K43" s="7"/>
+      <c r="K43" s="7" t="s">
+        <v>152</v>
+      </c>
       <c r="L43" s="7"/>
       <c r="M43" s="7"/>
       <c r="N43" s="7"/>
@@ -3163,7 +3297,9 @@
       <c r="J44" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="K44" s="7"/>
+      <c r="K44" s="7" t="s">
+        <v>152</v>
+      </c>
       <c r="L44" s="7"/>
       <c r="M44" s="7" t="s">
         <v>184</v>
@@ -3201,7 +3337,9 @@
       <c r="J45" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="K45" s="7"/>
+      <c r="K45" s="7" t="s">
+        <v>152</v>
+      </c>
       <c r="L45" s="7"/>
       <c r="M45" s="7"/>
       <c r="N45" s="7"/>
@@ -3237,7 +3375,9 @@
       <c r="J46" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="K46" s="7"/>
+      <c r="K46" s="7" t="s">
+        <v>269</v>
+      </c>
       <c r="L46" s="7"/>
       <c r="M46" s="7"/>
       <c r="N46" s="7"/>
@@ -3273,7 +3413,9 @@
       <c r="J47" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="K47" s="7"/>
+      <c r="K47" s="7" t="s">
+        <v>152</v>
+      </c>
       <c r="L47" s="7"/>
       <c r="M47" s="7" t="s">
         <v>245</v>
@@ -3311,12 +3453,210 @@
       <c r="J48" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="K48" s="7"/>
+      <c r="K48" s="7" t="s">
+        <v>152</v>
+      </c>
       <c r="L48" s="7"/>
       <c r="M48" s="7" t="s">
         <v>244</v>
       </c>
       <c r="N48" s="7"/>
+    </row>
+    <row r="49" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A49" s="3">
+        <v>48</v>
+      </c>
+      <c r="B49" s="5">
+        <v>44746</v>
+      </c>
+      <c r="C49" s="3">
+        <v>35780266</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G49" s="5">
+        <v>44744</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="I49" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
+    </row>
+    <row r="50" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A50" s="3">
+        <v>49</v>
+      </c>
+      <c r="B50" s="5">
+        <v>44746</v>
+      </c>
+      <c r="C50" s="3">
+        <v>35780211</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G50" s="5">
+        <v>44744</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="I50" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="N50" s="7"/>
+    </row>
+    <row r="51" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A51" s="3">
+        <v>50</v>
+      </c>
+      <c r="B51" s="5">
+        <v>44746</v>
+      </c>
+      <c r="C51" s="3">
+        <v>35780100</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G51" s="5">
+        <v>44744</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="I51" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="7"/>
+    </row>
+    <row r="52" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A52" s="3">
+        <v>51</v>
+      </c>
+      <c r="B52" s="5">
+        <v>44746</v>
+      </c>
+      <c r="C52" s="3">
+        <v>35779478</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G52" s="5">
+        <v>44727</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="I52" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="J52" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K52" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="N52" s="7"/>
+    </row>
+    <row r="53" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A53" s="3">
+        <v>52</v>
+      </c>
+      <c r="B53" s="5">
+        <v>44746</v>
+      </c>
+      <c r="C53" s="3">
+        <v>35779089</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G53" s="5">
+        <v>44744</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="I53" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="J53" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K53" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="N53" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/papers.xlsx
+++ b/papers.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\yanll\Workspace\Personal\Projects\what-does-deep-learning-doing-in-biomed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1195365-EAE0-4ACD-9740-85D364AB0E43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E444571B-5311-479E-91FC-C43B31AF9CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10680" yWindow="1020" windowWidth="28800" windowHeight="15345" xr2:uid="{1E75BEED-BD7A-4FCF-862A-92BB43F7F2FE}"/>
+    <workbookView xWindow="9390" yWindow="2970" windowWidth="25230" windowHeight="15345" xr2:uid="{1E75BEED-BD7A-4FCF-862A-92BB43F7F2FE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="DL-papers" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="292">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1126,6 +1126,82 @@
   </si>
   <si>
     <t>外伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1016/j.ejrad.2022.110414</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1016/j.compbiomed.2022.105797</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1016/j.compbiomed.2022.105685</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1016/j.media.2022.102521</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1016/j.bbrc.2022.06.004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bone visualization of the cervical spine with deep learning-based synthetic CT compared to conventional CT: A single-center noninferiority study on image quality.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CM-SegNet: A deep learning-based automatic segmentation approach for medical images by combining convolution and multilayer perceptron.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LMA-Net: A lesion morphology aware network for medical image segmentation towards breast tumors.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DARC: Deep adaptive regularized clustering for histopathological image classification.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Histopathological image recognition of breast cancer based on three-channel reconstructed color slice feature fusion.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eur J Radiol.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Med Image Anal.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Biochem Biophys Res Commun.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CT图像实现颈椎骨可视化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骨科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医学图像自动分割方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乳腺癌的医学图像分割</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>病理图像分类方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三通道重建彩色切片，乳腺癌组织病理图像识别</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1550,11 +1626,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{866CBFFE-03AD-46A4-AA9F-318EF5E0B526}">
-  <dimension ref="A1:N53"/>
+  <dimension ref="A1:N58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K44" sqref="K44"/>
+      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M59" sqref="M59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3658,6 +3734,204 @@
       </c>
       <c r="N53" s="7"/>
     </row>
+    <row r="54" spans="1:14" ht="57" x14ac:dyDescent="0.2">
+      <c r="A54" s="3">
+        <v>53</v>
+      </c>
+      <c r="B54" s="5">
+        <v>44747</v>
+      </c>
+      <c r="C54" s="3">
+        <v>35780607</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G54" s="5">
+        <v>44729</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="I54" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="J54" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K54" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="N54" s="7"/>
+    </row>
+    <row r="55" spans="1:14" ht="57" x14ac:dyDescent="0.2">
+      <c r="A55" s="3">
+        <v>54</v>
+      </c>
+      <c r="B55" s="5">
+        <v>44747</v>
+      </c>
+      <c r="C55" s="3">
+        <v>35780603</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G55" s="5">
+        <v>44740</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="I55" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="J55" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K55" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7"/>
+      <c r="N55" s="7"/>
+    </row>
+    <row r="56" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A56" s="3">
+        <v>55</v>
+      </c>
+      <c r="B56" s="5">
+        <v>44747</v>
+      </c>
+      <c r="C56" s="3">
+        <v>35780602</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G56" s="5">
+        <v>44715</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="I56" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="J56" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L56" s="7"/>
+      <c r="M56" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="N56" s="7"/>
+    </row>
+    <row r="57" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A57" s="3">
+        <v>56</v>
+      </c>
+      <c r="B57" s="5">
+        <v>44747</v>
+      </c>
+      <c r="C57" s="3">
+        <v>35780594</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G57" s="5">
+        <v>44735</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="I57" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="J57" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K57" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L57" s="7"/>
+      <c r="M57" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="N57" s="7"/>
+    </row>
+    <row r="58" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A58" s="3">
+        <v>57</v>
+      </c>
+      <c r="B58" s="5">
+        <v>44747</v>
+      </c>
+      <c r="C58" s="3">
+        <v>35780518</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="G58" s="5">
+        <v>44723</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="I58" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="J58" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K58" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L58" s="7"/>
+      <c r="M58" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="N58" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
